--- a/Data Files/C661.xlsx
+++ b/Data Files/C661.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GVVignesh\git\WGR_Android\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GVVignesh\Katalon Studio\WGR-Android-Automation\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65277170-0ABD-4558-B5FB-ABC5C631CEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE08C66-A84E-49D1-BC69-8F8201452058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>email</t>
   </si>
@@ -33,7 +33,13 @@
     <t>password</t>
   </si>
   <si>
-    <t>03205179TM@WG.COM</t>
+    <t>version</t>
+  </si>
+  <si>
+    <t>Version 2.81.111</t>
+  </si>
+  <si>
+    <t>0225109tm@wg.com</t>
   </si>
 </sst>
 </file>
@@ -351,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -362,25 +368,31 @@
     <col min="1" max="1" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{EDF5490A-2215-4CBC-A639-04F140626EBC}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A3984678-568C-48B5-943C-45BE159BA1EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Files/C661.xlsx
+++ b/Data Files/C661.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GVVignesh\Katalon Studio\WGR-Android-Automation\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gv.vignesh/Downloads/WGR-Android-Automation/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE08C66-A84E-49D1-BC69-8F8201452058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E13E92-E3B0-1447-8016-B609D9C66787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,17 +39,32 @@
     <t>Version 2.81.111</t>
   </si>
   <si>
-    <t>0225109tm@wg.com</t>
+    <t>03205200TM@WG.COM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,13 +87,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -357,18 +376,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,20 +398,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{A3984678-568C-48B5-943C-45BE159BA1EC}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B1571827-D8FE-0044-992A-8DAB8AB393AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Files/C661.xlsx
+++ b/Data Files/C661.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gv.vignesh/Downloads/WGR-Android-Automation/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E13E92-E3B0-1447-8016-B609D9C66787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE37AEEB-84E8-3E4A-930D-8A7AEA77A05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,12 +379,12 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -408,9 +408,6 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="2"/>
@@ -421,4 +418,10 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{316ca6ad-4b43-451a-933b-52169d54028f}" enabled="1" method="Privileged" siteId="{ef36e35c-2520-4ae8-b6c1-67a6f14e3dde}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>